--- a/data/cahier_recette.xlsx
+++ b/data/cahier_recette.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/formation/CESI/CUBES/PROJET 1/LIVRABLE_3/good_food_2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD54120-D9A7-B34D-AB89-FC460C549A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F000066-CC71-BF4E-9CE6-89C82084E238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{8491249C-8AC8-C34D-A75D-4727B12E9C02}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8491249C-8AC8-C34D-A75D-4727B12E9C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>developpeur</t>
   </si>
@@ -46,15 +47,89 @@
   </si>
   <si>
     <t>donnée de test</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>l'utilisateur se connecte à localhost</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>la page d'accueil s'ouvre</t>
+  </si>
+  <si>
+    <t>critère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les deux bouttons son présent
+</t>
+  </si>
+  <si>
+    <t>le titre est présent.</t>
+  </si>
+  <si>
+    <t>L'image est chargée</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Yes, connect to my account"</t>
+  </si>
+  <si>
+    <t>la page login est ouverte</t>
+  </si>
+  <si>
+    <t>le  boutton Home est présent</t>
+  </si>
+  <si>
+    <t>l'input enter your login est présent</t>
+  </si>
+  <si>
+    <t>description test</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Connect"</t>
+  </si>
+  <si>
+    <t>uen pop-up apparait</t>
+  </si>
+  <si>
+    <t>Le titre 'Athentication failed" est présent</t>
+  </si>
+  <si>
+    <t>le boutton "Close est présent"</t>
+  </si>
+  <si>
+    <t>le text login/password est présent</t>
+  </si>
+  <si>
+    <t>la requete http "POST: http://localhost:5001/auth"  return 400</t>
+  </si>
+  <si>
+    <t>l'utilisateur tente de se connecter à l'application, il valide mais n'a entré aucun paramètre. Une Pop up apparaît.</t>
+  </si>
+  <si>
+    <t>l'input enter your password est présent</t>
+  </si>
+  <si>
+    <t>l'url est localhost:4200/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,10 +156,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2FB7F1-C22F-5743-B0BF-517425E1A1F7}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,4 +522,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AC58C3-F662-1A48-B1A2-904BC4583732}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cahier_recette.xlsx
+++ b/data/cahier_recette.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/formation/CESI/CUBES/PROJET 1/LIVRABLE_3/good_food_2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F000066-CC71-BF4E-9CE6-89C82084E238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266FE177-28F8-F544-AC9A-5F12723ADA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8491249C-8AC8-C34D-A75D-4727B12E9C02}"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{8491249C-8AC8-C34D-A75D-4727B12E9C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="Authentication" sheetId="2" r:id="rId2"/>
+    <sheet name="Franchise_noLog" sheetId="4" r:id="rId3"/>
+    <sheet name="FAQ_noLog" sheetId="5" r:id="rId4"/>
+    <sheet name="aboutus_noLog" sheetId="6" r:id="rId5"/>
+    <sheet name="contactus_noLog" sheetId="8" r:id="rId6"/>
+    <sheet name="gestion produit" sheetId="9" r:id="rId7"/>
+    <sheet name=" select restaurant " sheetId="12" r:id="rId8"/>
+    <sheet name="Franchise_Log" sheetId="13" r:id="rId9"/>
+    <sheet name="FAQ_Log" sheetId="14" r:id="rId10"/>
+    <sheet name="aboutus_Log" sheetId="15" r:id="rId11"/>
+    <sheet name="contactus_Log" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="146">
   <si>
     <t>developpeur</t>
   </si>
@@ -89,12 +99,6 @@
     <t>description test</t>
   </si>
   <si>
-    <t>l'utilisateur clique sur "Connect"</t>
-  </si>
-  <si>
-    <t>uen pop-up apparait</t>
-  </si>
-  <si>
     <t>Le titre 'Athentication failed" est présent</t>
   </si>
   <si>
@@ -107,20 +111,409 @@
     <t>la requete http "POST: http://localhost:5001/auth"  return 400</t>
   </si>
   <si>
-    <t>l'utilisateur tente de se connecter à l'application, il valide mais n'a entré aucun paramètre. Une Pop up apparaît.</t>
-  </si>
-  <si>
     <t>l'input enter your password est présent</t>
   </si>
   <si>
     <t>l'url est localhost:4200/login</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Connect" sans entrer de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'utilisateur click sur "Close" </t>
+  </si>
+  <si>
+    <t>la pop up se ferme</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Connect" en entrant des données erronés</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>login: ""
+password: ""</t>
+  </si>
+  <si>
+    <t>login: "wrong data"
+password: "wrong password"</t>
+  </si>
+  <si>
+    <t>l'utilisateur tente de se connecter à l'application. Il tente de valider sans donnée, puis avec des données erronés et enfin avec des données corrects.</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Connect" en entrant des données correctes</t>
+  </si>
+  <si>
+    <t>une pop-up apparait</t>
+  </si>
+  <si>
+    <t>la page d'accueil est affichée</t>
+  </si>
+  <si>
+    <t>login: "fm.Voltaire@test.com"
+password: "test"</t>
+  </si>
+  <si>
+    <t>l'url est localhost:4200/home</t>
+  </si>
+  <si>
+    <t>l'utilisateur veux voir tous les restaurants de good-food sans être loggé</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "No, begin my new experience"</t>
+  </si>
+  <si>
+    <t>la page home est affichée</t>
+  </si>
+  <si>
+    <t>le titre good food 2.0 est présent</t>
+  </si>
+  <si>
+    <t>le select Country est présent</t>
+  </si>
+  <si>
+    <t>l'input  zipcode est présent</t>
+  </si>
+  <si>
+    <t>le bouton valid est présent</t>
+  </si>
+  <si>
+    <t>le bouton sign in est présent</t>
+  </si>
+  <si>
+    <t>le botuon logo est présent</t>
+  </si>
+  <si>
+    <t>le bouton FAQ est présent</t>
+  </si>
+  <si>
+    <t>le bouton Franchise est présent</t>
+  </si>
+  <si>
+    <t>le bouton contact us est présent</t>
+  </si>
+  <si>
+    <t>le bouton about us est présent</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur l'onglet Franchise</t>
+  </si>
+  <si>
+    <t>la page franchise est affichée</t>
+  </si>
+  <si>
+    <t>l'url est localhost:4200/home/franchise</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur l'onglet FAQ</t>
+  </si>
+  <si>
+    <t>le bouton logo est présent</t>
+  </si>
+  <si>
+    <t>la page FAQ est affichée</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur l'onglet "contactus"</t>
+  </si>
+  <si>
+    <t>la page "contactus" est affichée</t>
+  </si>
+  <si>
+    <t>le paragraphe Mail: good.food@gmail.com est présent</t>
+  </si>
+  <si>
+    <t>le paragraphe Phone: +33 1.70.12.24.35 est présent</t>
+  </si>
+  <si>
+    <t>le paragrapge Address: 24 avenue du bon moment est présent</t>
+  </si>
+  <si>
+    <t>http://localhost:4200/home/contactus</t>
+  </si>
+  <si>
+    <t>http://localhost:4200/home/aboutus</t>
+  </si>
+  <si>
+    <t>http://localhost:4200/home/faq</t>
+  </si>
+  <si>
+    <t>le paragraphe "Three ways for contact" est présent</t>
+  </si>
+  <si>
+    <t>l'utilisateur veux consulter les FAQ</t>
+  </si>
+  <si>
+    <t>l'utilisateur veut consulter la présentation de good-food</t>
+  </si>
+  <si>
+    <t>l'utilisateur veux savoir comment nous contacter</t>
+  </si>
+  <si>
+    <t>le boutton "Admin est présent"</t>
+  </si>
+  <si>
+    <t>http:/l'url est "/localhost:4200/home"</t>
+  </si>
+  <si>
+    <t>la page login s'ouvre</t>
+  </si>
+  <si>
+    <t>l'input "enter your login" est présent</t>
+  </si>
+  <si>
+    <t>l'input "enter your password" est présent</t>
+  </si>
+  <si>
+    <t>login: "fm.Voltaire@test.com
+mdp:"test"</t>
+  </si>
+  <si>
+    <t>la page home s'ouvre</t>
+  </si>
+  <si>
+    <t>le bouton "Account" est présent</t>
+  </si>
+  <si>
+    <t>le bouton "Cart" est présent</t>
+  </si>
+  <si>
+    <t>l'utilisateur saisit ses credentials et valid</t>
+  </si>
+  <si>
+    <t>l'utilisateur choisit son secteur</t>
+  </si>
+  <si>
+    <t>la pop up de choix de restaurant
+ s'ouvre</t>
+  </si>
+  <si>
+    <t>le titre de la pop est "Wich restaurant do you prefer?"</t>
+  </si>
+  <si>
+    <t>deux retaurants sont au choix
+la table royale 34 rue des orpheline 64000 PAU
+le palais de la gourmandise 54 rue richelieu 64320 BIZANOS</t>
+  </si>
+  <si>
+    <t>le bouton close est présent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utilisateur choisit son restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country: "France"
+zip Code: "64000"
+</t>
+  </si>
+  <si>
+    <t>restaurant: "la table royale"</t>
+  </si>
+  <si>
+    <t>la page menu s'ouvre</t>
+  </si>
+  <si>
+    <t>l'url est localhost:4200/home/menu</t>
+  </si>
+  <si>
+    <t>le titre "Menu for la table royale" est présent</t>
+  </si>
+  <si>
+    <t>il y a 3 recettes affichées</t>
+  </si>
+  <si>
+    <t>l'utilisateur veut ajouter des produits à son panier et les consulter.</t>
+  </si>
+  <si>
+    <t>l'utilisateur ajoute un plat son panier et clique sur "cart"</t>
+  </si>
+  <si>
+    <t>le bouton "Restaurant: la table royale est affiché"</t>
+  </si>
+  <si>
+    <t>la page panier s'ouvre</t>
+  </si>
+  <si>
+    <t>le titre "Your cart" est présent</t>
+  </si>
+  <si>
+    <t>il y a un bouton "+"</t>
+  </si>
+  <si>
+    <t>il y un bouton "-"</t>
+  </si>
+  <si>
+    <t>Pate carbonara est affiché</t>
+  </si>
+  <si>
+    <t>13€ est affiché</t>
+  </si>
+  <si>
+    <t>le bouton delete est présent</t>
+  </si>
+  <si>
+    <t>le bouton "order" est présent</t>
+  </si>
+  <si>
+    <t>Total: 13 € est présent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'utilisateur supprime le plat de son panier avec "delete" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le prix est mis à jour
+la recette n'est plus dans le panier
+</t>
+  </si>
+  <si>
+    <t>Total: 0 € est présent</t>
+  </si>
+  <si>
+    <t>le titre: "Your Cart is empty" est présent</t>
+  </si>
+  <si>
+    <t>l'image est affichée</t>
+  </si>
+  <si>
+    <t>recipe: "1 pate carbonara 13€"
+Total 13€</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur le bouton restaurant et ajoute 2 plats au panier</t>
+  </si>
+  <si>
+    <t>recipe: "1 pate carbonara 13€"
+Total 26€
+recipe: "1 pate bolognaise 13€"</t>
+  </si>
+  <si>
+    <t>l'utilisateur navigue sur le panier et regarde sa commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la page cart s'ouvre
+</t>
+  </si>
+  <si>
+    <t>l'url est localhost:4200/home/cart</t>
+  </si>
+  <si>
+    <t>13€ est affiché deux fois</t>
+  </si>
+  <si>
+    <t>le bouton delete est présent 2 fois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il y a un bouton "+" deux fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">il y un bouton "-" deux fois </t>
+  </si>
+  <si>
+    <t>Pate bolognaise est affiché</t>
+  </si>
+  <si>
+    <t>l'utilisateur ajoute un plat avec le bouton "+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le recette est mise à jour </t>
+  </si>
+  <si>
+    <t>Total: 26 € est présent</t>
+  </si>
+  <si>
+    <t>Total: 39 € est présent</t>
+  </si>
+  <si>
+    <t>recipe: "2 pate carbonara 13€"
+Total 39€
+recipe: "1 pate bolognaise 13€"</t>
+  </si>
+  <si>
+    <t>l'utilisateur supprime un plat avec le bouton "-"</t>
+  </si>
+  <si>
+    <t>recipe: "2 pate carbonara 13€"
+Total 26€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il y un bouton "-" </t>
+  </si>
+  <si>
+    <t>l'utilisateur veut choisir un restaurant</t>
+  </si>
+  <si>
+    <t>une pop up apparaît</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les deux boutons son présent
+</t>
+  </si>
+  <si>
+    <t>le titre de la pop up affiche "No Zip Code!"</t>
+  </si>
+  <si>
+    <t>le corps de la pop up affiche "zip code is required, please fill in it"</t>
+  </si>
+  <si>
+    <t>Country: "France"
+zipcode : "64000"</t>
+  </si>
+  <si>
+    <t>le titre de la pop up affiche "No new experience available !"</t>
+  </si>
+  <si>
+    <t>le corps de la pop up affiche rien</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur "Yes, begin my new experience"</t>
+  </si>
+  <si>
+    <t>la page login est affichée</t>
+  </si>
+  <si>
+    <t>l'utilisateur click sur le bouton valid</t>
+  </si>
+  <si>
+    <t>le bouton account est présent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'utilisateur clique sur "Home" </t>
+  </si>
+  <si>
+    <t>La page home est affiché</t>
+  </si>
+  <si>
+    <t>le boutton "Sign in est présent"</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur le bouton "Sign in"</t>
+  </si>
+  <si>
+    <t>l'utilisateur click sur Valid sans entrer de donné</t>
+  </si>
+  <si>
+    <t>l'utilisateur click sur Valid en entrant des  de donnés  mais non présent en BD</t>
+  </si>
+  <si>
+    <t>L'utilisateur entre des données présentes en BD</t>
+  </si>
+  <si>
+    <t>la page menu est affichée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,19 +528,128 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -156,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,17 +666,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,146 +1173,4076 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D98C7A-7A8A-BF46-A105-0A04466F6F5D}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="E9:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5978786-5946-8A47-82FE-340D512285D8}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="E9:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107A711-FDD8-424F-869E-7C9FF90630DA}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="E21:E31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="E9:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AC58C3-F662-1A48-B1A2-904BC4583732}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="E21" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="19">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B5:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55BBE46-260B-9847-AE19-7BB1BB298C4B}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6267C9-C0A1-994E-87AE-C5F9BD4A8B03}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E16:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6DC7D8-E190-0F46-8DED-91A46760C845}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E16:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1BBD17-D664-3D49-8E89-9136BA3DE911}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E15"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:C26"/>
+    <mergeCell ref="E16:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1A9E06-14EB-DF4D-AB2A-65841389E3FF}">
+  <dimension ref="A1:E107"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="B67" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="45"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="45"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="45"/>
+    </row>
+    <row r="73" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="45"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="45"/>
+    </row>
+    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="27"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="27"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="27"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="27"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="27"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="26"/>
+    </row>
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="27"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="27"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="27"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="27"/>
+      <c r="B95" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="27"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="45"/>
+    </row>
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="27"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="45"/>
+    </row>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="45"/>
+    </row>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="45"/>
+    </row>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="27"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="45"/>
+    </row>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="45"/>
+    </row>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="28"/>
+    </row>
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="28"/>
+    </row>
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="28"/>
+    </row>
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="27"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E106" s="28"/>
+    </row>
+    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="E102:E107"/>
+    <mergeCell ref="C78:C94"/>
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="E78:E94"/>
+    <mergeCell ref="A2:A107"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="E67:E77"/>
+    <mergeCell ref="E21:E35"/>
+    <mergeCell ref="C47:C62"/>
+    <mergeCell ref="B47:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="B36:B46"/>
+    <mergeCell ref="C36:C46"/>
+    <mergeCell ref="E36:E46"/>
+    <mergeCell ref="E47:E62"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="C21:C35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CDFDC7-F93B-CA46-B24F-E8BF0DE53C90}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E5:E15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA23C610-4DE2-4948-A168-ABE5A7E5355C}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E21:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cahier_recette.xlsx
+++ b/data/cahier_recette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/formation/CESI/CUBES/PROJET 1/LIVRABLE_3/good_food_2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266FE177-28F8-F544-AC9A-5F12723ADA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E017A0E-FF7A-FF4A-A79F-27909A0E0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{8491249C-8AC8-C34D-A75D-4727B12E9C02}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="aboutus_noLog" sheetId="6" r:id="rId5"/>
     <sheet name="contactus_noLog" sheetId="8" r:id="rId6"/>
     <sheet name="gestion produit" sheetId="9" r:id="rId7"/>
-    <sheet name=" select restaurant " sheetId="12" r:id="rId8"/>
+    <sheet name=" gestion restaurant " sheetId="12" r:id="rId8"/>
     <sheet name="Franchise_Log" sheetId="13" r:id="rId9"/>
     <sheet name="FAQ_Log" sheetId="14" r:id="rId10"/>
     <sheet name="aboutus_Log" sheetId="15" r:id="rId11"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="150">
   <si>
     <t>developpeur</t>
   </si>
@@ -500,10 +500,24 @@
     <t>l'utilisateur click sur Valid en entrant des  de donnés  mais non présent en BD</t>
   </si>
   <si>
-    <t>L'utilisateur entre des données présentes en BD</t>
-  </si>
-  <si>
-    <t>la page menu est affichée</t>
+    <t>l'utilisateur entre de data présentes en BD</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur le logo "good fodd 2.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country: "Luxembourg"
+zip Code: "1450"
+</t>
+  </si>
+  <si>
+    <t>restaurant: "au bon miam</t>
+  </si>
+  <si>
+    <t>le titre "Menu for au bon miam" est présent</t>
+  </si>
+  <si>
+    <t>le bouton "Restaurant:au bon miam est affiché"</t>
   </si>
 </sst>
 </file>
@@ -3547,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1A9E06-14EB-DF4D-AB2A-65841389E3FF}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D20"/>
+    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4643,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CDFDC7-F93B-CA46-B24F-E8BF0DE53C90}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4677,7 +4691,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -4693,8 +4707,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
@@ -4702,8 +4716,8 @@
       </c>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="10" t="s">
@@ -4711,8 +4725,8 @@
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
       <c r="B5" s="33" t="s">
         <v>38</v>
       </c>
@@ -4726,8 +4740,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
       <c r="B6" s="33"/>
       <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
@@ -4735,8 +4749,8 @@
       </c>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="33"/>
       <c r="C7" s="32"/>
       <c r="D7" s="8" t="s">
@@ -4744,8 +4758,8 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
       <c r="B8" s="33"/>
       <c r="C8" s="32"/>
       <c r="D8" s="8" t="s">
@@ -4753,8 +4767,8 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
       <c r="B9" s="33"/>
       <c r="C9" s="32"/>
       <c r="D9" s="8" t="s">
@@ -4762,8 +4776,8 @@
       </c>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
       <c r="B10" s="33"/>
       <c r="C10" s="32"/>
       <c r="D10" s="4" t="s">
@@ -4771,8 +4785,8 @@
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
       <c r="B11" s="33"/>
       <c r="C11" s="32"/>
       <c r="D11" s="8" t="s">
@@ -4780,8 +4794,8 @@
       </c>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="32"/>
       <c r="D12" s="4" t="s">
@@ -4789,8 +4803,8 @@
       </c>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
       <c r="B13" s="33"/>
       <c r="C13" s="32"/>
       <c r="D13" s="8" t="s">
@@ -4798,8 +4812,8 @@
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
       <c r="B14" s="33"/>
       <c r="C14" s="32"/>
       <c r="D14" s="4" t="s">
@@ -4807,8 +4821,8 @@
       </c>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="32"/>
       <c r="D15" s="8" t="s">
@@ -4816,8 +4830,8 @@
       </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
       <c r="B16" s="25" t="s">
         <v>142</v>
       </c>
@@ -4832,7 +4846,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="10" t="s">
@@ -4840,8 +4854,8 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="10" t="s">
@@ -4850,7 +4864,7 @@
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="51" t="s">
         <v>143</v>
       </c>
@@ -4864,8 +4878,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
       <c r="B20" s="51"/>
       <c r="C20" s="52"/>
       <c r="D20" s="44" t="s">
@@ -4873,8 +4887,8 @@
       </c>
       <c r="E20" s="52"/>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
       <c r="B21" s="51"/>
       <c r="C21" s="52"/>
       <c r="D21" s="44" t="s">
@@ -4882,42 +4896,617 @@
       </c>
       <c r="E21" s="52"/>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="10" t="s">
+      <c r="C48" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="38"/>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="38"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="38"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="38"/>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="35"/>
+      <c r="B59" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="37"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="37"/>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="37"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="35"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="37"/>
+    </row>
+    <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="35"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="37"/>
+    </row>
+    <row r="72" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="37"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E73" s="37"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="35"/>
+      <c r="B74" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="35"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="35"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="35"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="35"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="35"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="35"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="35"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="35"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="35"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="35"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
+  <mergeCells count="28">
+    <mergeCell ref="C48:C58"/>
+    <mergeCell ref="E48:E58"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="C59:C73"/>
+    <mergeCell ref="E59:E73"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="C74:C84"/>
+    <mergeCell ref="E74:E84"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="E22:E36"/>
+    <mergeCell ref="A2:A84"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="E16:E18"/>
@@ -4927,6 +5516,10 @@
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="E5:E15"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="E37:E47"/>
+    <mergeCell ref="B48:B58"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:E4"/>
